--- a/Jogos_do_Dia/2024-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,124 +673,124 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sporting Charleroi</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.13</v>
+        <v>4.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>1.6</v>
+        <v>4.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="L2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.94</v>
-      </c>
       <c r="S2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1.61</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -812,124 +812,124 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Sporting Charleroi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.66</v>
+        <v>2.13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>4.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>3.94</v>
       </c>
       <c r="S3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.64</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AA3" t="n">
-        <v>1.64</v>
+        <v>0.91</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.77</v>
+        <v>1.11</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.07</v>
+        <v>2.63</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="M4" t="n">
         <v>1.29</v>
@@ -999,7 +999,7 @@
         <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1026,10 +1026,10 @@
         <v>2.04</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="AE4" t="n">
         <v>1.28</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P6" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="n">
         <v>1.16</v>
       </c>
       <c r="R6" t="n">
-        <v>4.35</v>
+        <v>5.6</v>
       </c>
       <c r="S6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.57</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
         <v>1.22</v>
       </c>
       <c r="Y6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.1</v>
       </c>
-      <c r="Z6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AA6" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.52</v>
+        <v>2.03</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.93</v>
+        <v>3.36</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -1368,130 +1368,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="N7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R7" t="n">
         <v>3.75</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.8</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.73</v>
+        <v>3.12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="AF7" t="n">
         <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.41</v>
+        <v>2.89</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AP8" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.16</v>
       </c>
       <c r="R9" t="n">
-        <v>5.6</v>
+        <v>4.35</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
         <v>1.22</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.03</v>
+        <v>1.52</v>
       </c>
       <c r="AC9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.12</v>
+        <v>2.03</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="N10" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.75</v>
+        <v>3.73</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>2.41</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.33</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11">
@@ -1942,13 +1942,13 @@
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="M11" t="n">
         <v>1.4</v>
@@ -2081,13 +2081,13 @@
         <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="M12" t="n">
         <v>1.36</v>
@@ -2108,10 +2108,10 @@
         <v>3.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
         <v>1.74</v>
@@ -2144,43 +2144,43 @@
         <v>2.62</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13">
@@ -2220,10 +2220,10 @@
         <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -2247,10 +2247,10 @@
         <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2283,43 +2283,43 @@
         <v>3.01</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="M14" t="n">
         <v>1.33</v>
@@ -2386,10 +2386,10 @@
         <v>4.33</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
@@ -2498,13 +2498,13 @@
         <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.25</v>
@@ -2525,10 +2525,10 @@
         <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="K2" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
         <v>1.26</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="T2" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -830,13 +830,13 @@
         <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.11</v>
       </c>
       <c r="L3" t="n">
-        <v>4.7</v>
+        <v>5.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.32</v>
@@ -857,7 +857,7 @@
         <v>3.94</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
         <v>2.08</v>
@@ -969,13 +969,13 @@
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="L4" t="n">
-        <v>9.9</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M4" t="n">
         <v>1.29</v>
@@ -999,7 +999,7 @@
         <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.01</v>
       </c>
       <c r="L6" t="n">
-        <v>4.55</v>
+        <v>3.82</v>
       </c>
       <c r="M6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.16</v>
       </c>
       <c r="R6" t="n">
-        <v>5.6</v>
+        <v>4.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="T6" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>1.22</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.03</v>
+        <v>1.52</v>
       </c>
       <c r="AC6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -1368,130 +1368,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.75</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="R7" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
         <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.12</v>
+        <v>3.73</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AF7" t="n">
         <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.89</v>
+        <v>2.41</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.74</v>
+        <v>4.3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.01</v>
+        <v>2.26</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>3.92</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="M8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.2</v>
       </c>
-      <c r="N8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X8" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.33</v>
+        <v>1.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.75</v>
+        <v>3.12</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>2.89</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P9" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="n">
         <v>1.16</v>
       </c>
       <c r="R9" t="n">
-        <v>4.35</v>
+        <v>5.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
         <v>1.22</v>
       </c>
       <c r="Y9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.1</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AA9" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.52</v>
+        <v>2.03</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.93</v>
+        <v>3.36</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.74</v>
+        <v>4.1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.91</v>
+        <v>2.43</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.03</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>7.31</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>15.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="R10" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.73</v>
+        <v>2.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.41</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.33</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="11">
@@ -1942,13 +1942,13 @@
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="L11" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.4</v>
@@ -1969,10 +1969,10 @@
         <v>3.45</v>
       </c>
       <c r="S11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.92</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.95</v>
       </c>
       <c r="U11" t="n">
         <v>1.73</v>
@@ -2081,13 +2081,13 @@
         <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="L12" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="M12" t="n">
         <v>1.36</v>
@@ -2108,10 +2108,10 @@
         <v>3.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.74</v>
@@ -2223,10 +2223,10 @@
         <v>1.18</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>10.77</v>
       </c>
       <c r="M13" t="n">
         <v>1.22</v>
@@ -2247,10 +2247,10 @@
         <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2359,13 +2359,13 @@
         <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.33</v>
@@ -2386,10 +2386,10 @@
         <v>4.33</v>
       </c>
       <c r="S14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
@@ -2498,13 +2498,13 @@
         <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>5.1</v>
+        <v>4.78</v>
       </c>
       <c r="M15" t="n">
         <v>1.25</v>
@@ -2525,10 +2525,10 @@
         <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="U15" t="n">
         <v>1.53</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="K16" t="n">
-        <v>5.75</v>
+        <v>5.59</v>
       </c>
       <c r="L16" t="n">
-        <v>9.5</v>
+        <v>9.27</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
